--- a/medicine/Enfance/Anne…_la_maison_aux_pignons_verts/Anne…_la_maison_aux_pignons_verts.xlsx
+++ b/medicine/Enfance/Anne…_la_maison_aux_pignons_verts/Anne…_la_maison_aux_pignons_verts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Anne... la maison aux pignons verts ou  Anne de Green Gables[1] (titre original : Anne of Green Gables) est un roman de l'autrice canadienne Lucy Maud Montgomery, publié en 1908 sous le nom de L. M. Montgomery.
+Anne... la maison aux pignons verts ou  Anne de Green Gables (titre original : Anne of Green Gables) est un roman de l'autrice canadienne Lucy Maud Montgomery, publié en 1908 sous le nom de L. M. Montgomery.
 L'intrigue principale du roman se déroule durant la seconde moitié du XIXe siècle et raconte les aventures d'Anne Shirley, une orpheline canadienne de onze ans, dans la ville fictive d'Avonlea, sur l'Île-du-Prince-Édouard. Elle est envoyée par erreur chez Matthew et Marilla Cuthbert, un frère et une sœur tous deux âgés, qui avaient en fait demandé un jeune garçon pour travailler dans leur ferme de Green Gables.
-Depuis sa publication, Anne... la maison aux pignons verts est considéré comme un classique de la littérature d'enfance et de jeunesse internationale[2] ; il a été traduit en plus de trente-six langues et est l'un des livres les plus vendus au monde avec plus de cinquante millions d'exemplaires[3]. Premier d'une saga anthologique, le roman est suivi de nombreux ouvrages de Lucy Maud Montgomery, ainsi que d'une suite et d'un prologue posthumes. Le roman a également été adapté au cinéma, à la télévision et au théâtre[4],[5],[6].
+Depuis sa publication, Anne... la maison aux pignons verts est considéré comme un classique de la littérature d'enfance et de jeunesse internationale ; il a été traduit en plus de trente-six langues et est l'un des livres les plus vendus au monde avec plus de cinquante millions d'exemplaires. Premier d'une saga anthologique, le roman est suivi de nombreux ouvrages de Lucy Maud Montgomery, ainsi que d'une suite et d'un prologue posthumes. Le roman a également été adapté au cinéma, à la télévision et au théâtre.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant l'écriture du roman, Lucy Maud Montgomery dit s'être inspirée de notes rédigées plus jeune sur un couple qui aurait par erreur reçu une jeune fille au lieu d'un jeune garçon comme demandé et qui aurait décidé de la garder. Elle puise aussi dans ses souvenirs d'enfance à la campagne sur l'Île-du-Prince-Édouard. Pour créer le visage d'Anne Shirley, Lucy Maud Montgomery a utilisé une photographie d'Evelyn Nesbit découpée dans le Metropolitan Magazine et qui lui rappelait son « idéalisme et sa spiritualité enfantine »[7].
-Lucy Maud Montgomery a également emprunté aux histoires d'orphelines très populaires à l'époque, forgées selon un schéma prévisible appelé la « formule Ann », tout en distinguant son personnage des autres par l'ajout d'un « E » au prénom de son héroïne[8],[9]. D'autres personnages, comme celui de Gilbert Blythe, sont inspirés de personnes que l'autrice a connu lors de sa vie. Elle raconte avoir écrit son roman principalement à l'heure du crépuscule, assise à la fenêtre et contemplant les champs de Cavendish[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant l'écriture du roman, Lucy Maud Montgomery dit s'être inspirée de notes rédigées plus jeune sur un couple qui aurait par erreur reçu une jeune fille au lieu d'un jeune garçon comme demandé et qui aurait décidé de la garder. Elle puise aussi dans ses souvenirs d'enfance à la campagne sur l'Île-du-Prince-Édouard. Pour créer le visage d'Anne Shirley, Lucy Maud Montgomery a utilisé une photographie d'Evelyn Nesbit découpée dans le Metropolitan Magazine et qui lui rappelait son « idéalisme et sa spiritualité enfantine ».
+Lucy Maud Montgomery a également emprunté aux histoires d'orphelines très populaires à l'époque, forgées selon un schéma prévisible appelé la « formule Ann », tout en distinguant son personnage des autres par l'ajout d'un « E » au prénom de son héroïne,. D'autres personnages, comme celui de Gilbert Blythe, sont inspirés de personnes que l'autrice a connu lors de sa vie. Elle raconte avoir écrit son roman principalement à l'heure du crépuscule, assise à la fenêtre et contemplant les champs de Cavendish.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Shirley, une jeune orpheline venant de la communauté fictive de Bolingbroke, en Nouvelle-Écosse (inspirée de New London)[11],[12], est envoyée par erreur chez Marilla et Matthew Cuthbert, un frère et une sœur quinquagénaires, après une enfance marquée par les séjours dans des orphelinats et des familles d'accueil. Marilla et Matthew avaient originellement décidé d'adopter un jeune garçon afin d'aider Matthew à travailler dans la ferme des « Pignons verts » (Green Gables en VO), située dans la ville fictive d'Avonlea (inspirée de Cavendish).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Shirley, une jeune orpheline venant de la communauté fictive de Bolingbroke, en Nouvelle-Écosse (inspirée de New London) est envoyée par erreur chez Marilla et Matthew Cuthbert, un frère et une sœur quinquagénaires, après une enfance marquée par les séjours dans des orphelinats et des familles d'accueil. Marilla et Matthew avaient originellement décidé d'adopter un jeune garçon afin d'aider Matthew à travailler dans la ferme des « Pignons verts » (Green Gables en VO), située dans la ville fictive d'Avonlea (inspirée de Cavendish).
 Anne est une jeune fille douée de fantaisie, démonstrative, avec une imagination débordante et l'envie de plaire à tout le monde. Elle est cependant peu sûre de son apparence et déteste ses cheveux roux, ses taches de rousseur, sa peau pâle et sa carrure maigre, bien qu'elle apprécie son nez. Elle est très bavarde, surtout lorsqu'il s'agit de raconter ses rêves. Marilla décide d'abord de renvoyer Anne à l'orphelinat, mais après l'avoir observée et avoir réfléchi, et avec l'encouragement bienveillant de Matthew, elle décide de la garder à la ferme. Anne apprécie les petites choses de la vie et s'adapte à sa nouvelle existence à la ferme et au village, et son imagination et sa loquacité apportent de la joie à Green Gables.
 Le roman raconte les joies et les peines d'Anne alors qu'elle apprend à vivre aux « Pignons verts », qui est son premier vrai domicile : elle va à l'école du village et est très vite remarquée pour son intelligence, se lie d'amitié avec Diana Barry, sa voisine, développe son amour pour la littérature. Elle devient la rivale d'un de ses camarades de classe, Gilbert Blythe, qui se moque de ses cheveux roux et s'attire ainsi la haine d'Anne, malgré ses excuses. La colère d'Anne s'estompe avec le temps, mais sa fierté l'empêche d'aller vers Gilbert.
 Le roman narre également les aventures d'Anne dans le village d'Avonlea avec ses amies Diana, Jane Andrews, une jeune fille réservée, et la belle Ruby Gillis, qui ne pense qu'aux garçons, mais aussi sa mésentente avec Gertie et Josie Pye ainsi que ses mésaventures domestiques, comme lorsqu'elle se teint les cheveux en vert en voulant qu'ils deviennent noirs, ou en enivrant accidentellement Diana en lui faisant boire ce qu'elle pense être du jus de framboise mais qui se révèle être du vin de groseilles.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,14 +600,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Habitants des « Pignons verts »
-Anne Shirley. Orpheline imaginative et bavarde qui vient vivre chez Matthew et Marilla Cuthbert à l'âge de onze ans. Anne est très sensible et déteste la rousseur de ses cheveux. Son enfance s'est passée dans les orphelinats et les familles d'accueil à s'occuper d'enfants plus jeunes ; elle est donc très heureuse d'avoir enfin une vraie maison aux « Pignons verts ».
+          <t>Habitants des « Pignons verts »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anne Shirley. Orpheline imaginative et bavarde qui vient vivre chez Matthew et Marilla Cuthbert à l'âge de onze ans. Anne est très sensible et déteste la rousseur de ses cheveux. Son enfance s'est passée dans les orphelinats et les familles d'accueil à s'occuper d'enfants plus jeunes ; elle est donc très heureuse d'avoir enfin une vraie maison aux « Pignons verts ».
 Marilla Cuthbert. Sœur de Matthew, c'est une femme austère et impartiale avec « un certain sens de l'humour ». Avant l'arrivée d'Anne aux « Pignons verts », sa vie est sans couleurs et sans réelle joie. Elle tente d'instaurer la discipline dans l'esprit de la jeune fille mais finit par être séduite par sa joie et sa vivacité.
 Matthew Cuthbert. Frère de Marilla, c'est un homme bienveillant et timide qui apprécie Anne dès qu'il la rencontre. Ils se lient rapidement d'amitié et il est la première personne qui montre un amour inconditionnel pour Anne. Malgré le fait que Marilla ait la principale responsabilité de l'éducation de la jeune fille, il n'hésite pas à la gâter avec de beaux vêtements et autres frivolités.
 Jerry Buote. le fermier des Pignons verts qui aide Matthew et Marilla.
-Martin. l'ouvrier des Pignons verts qui aide Matthew et Marilla.
-Entourage d'Anne
-Ann Anderson. Amie d'Anne.
+Martin. l'ouvrier des Pignons verts qui aide Matthew et Marilla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Entourage d'Anne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ann Anderson. Amie d'Anne.
 Jane Andrews. Jeune fille réservée et sensible et amie d'Anne. Elle est assez bonne à l'école pour intégrer la classe d'Anne à l'académie.
 Kitty Andrews. Jeune fille vive et sensible et amie d'Anne et sœur de Jane Andrews. Elle est assez bonne à l'école pour intégrer la classe d'Anne à l'académie comme sa sœur.
 Diane Andrews. Jeune fille vive et sensible et amie d'Anne et sœur de Jane Andrews. Elle est assez bonne à l'école pour intégrer la classe d'Anne à l'académie comme sa sœur.
@@ -672,9 +727,43 @@
 Emma White. Camarade de classe d'Anne.
 James Woodman. Camarade de classe d'Anne.
 John Yeo. Camarade de classe d'Anne.
-Robert Younker. Ami d'Anne.
-Habitants d'Avonlea
-Rachel Lynde. Voisine de Matthew et Marilla, Rachel Lynde est une personne très occupée mais très charitable. Même si elle et Anne ne s'entendent pas très bien à cause de leurs caractères bruts, elles finissent par devenir proches. Rachel est mariée à Thomas Lynde, avec qui elle a eu dix enfants.
+Robert Younker. Ami d'Anne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitants d'Avonlea</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rachel Lynde. Voisine de Matthew et Marilla, Rachel Lynde est une personne très occupée mais très charitable. Même si elle et Anne ne s'entendent pas très bien à cause de leurs caractères bruts, elles finissent par devenir proches. Rachel est mariée à Thomas Lynde, avec qui elle a eu dix enfants.
 Samuel Harris. La nièce de sa femme est vendeuse.
 M. Teddy Phillips. Le maître d'école d'Anne à Avonlea. Il n'est pas très apprécié des élèves et particulièrement pas par Anne : il écrit constamment son prénom sans le « E » et la punit souvent et sévèrement. Il est décrit comme manquant de discipline et séduit l'une de ses élèves ouvertement.
 Mlle Muriel Stacy. La maîtresse d'école remplaçante à Avonlea. Son caractère chaleureux et sympathique plaît aux élèves, bien que certains parents apprécient peu ses méthodes d'enseignement progressistes. Mlle Stacy a un esprit bienveillant et Anne la considère comme un mentor. Elle encourage la jeune fille à développer son caractère et son intellect et l'aide à se préparer pour l'examen d'entrée à l'académie.
@@ -688,9 +777,43 @@
 Prissy Lagraine. Une amie d'Anne.
 Stella Ménard. Une amie d'Anne.
 Mr Tom Russel. Le directeur de la banque AB.
-M. Sadley. Il vient voir les Cuthbert.
-Autres
-Mlle Josephine Barry. La grand-tante de Diana. D'abord sévère, elle est vite charmée et amusée par l'imagination d'Anne et l'invite à prendre le thé avec Diana. Elle envoie même des souliers brodés à Anne pour Noël.
+M. Sadley. Il vient voir les Cuthbert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mlle Josephine Barry. La grand-tante de Diana. D'abord sévère, elle est vite charmée et amusée par l'imagination d'Anne et l'invite à prendre le thé avec Diana. Elle envoie même des souliers brodés à Anne pour Noël.
 Mme Hammond. Anne a vécu chez elle une partie de son enfance avant les « Pignons verts », pendant laquelle elle s'est occupée de ses trois paires de jumeaux. Anne est envoyée à l'orphelinat quand Mme Hammond est forcée de déménager à la suite de la mort soudaine de son mari.
 Mr et Mme Chesterhouse. Ils viennent souvent aux Pignons Verts.
 Le vendeur de produits de beauté. Il vient voir Anne dans l'épisode 30 de la série animée.
@@ -705,64 +828,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne... la maison aux pignons verts est publié pour la première fois le 13 juin 1908 à Boston par L.C. Page &amp; Co[13]. Le roman devient rapidement un best-seller et plus de dix-neuf mille exemplaires sont vendus lors des cinq premiers mois. Depuis, plus de cinquante millions ont été vendus dans le monde[14]. En Suisse, il est paru pour la première fois en 1925 sous le titre Anne, ou les Illusions heureuses ; en France, en 1964 chez Hachette dans la collection Bibliothèque verte sous le titre Anne et le bonheur ; au Québec, en 1985.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne... la maison aux pignons verts est publié pour la première fois le 13 juin 1908 à Boston par L.C. Page &amp; Co. Le roman devient rapidement un best-seller et plus de dix-neuf mille exemplaires sont vendus lors des cinq premiers mois. Depuis, plus de cinquante millions ont été vendus dans le monde. En Suisse, il est paru pour la première fois en 1925 sous le titre Anne, ou les Illusions heureuses ; en France, en 1964 chez Hachette dans la collection Bibliothèque verte sous le titre Anne et le bonheur ; au Québec, en 1985.
 En 2017, la maison d'édition IL ETAIT UN BOUQUIN / EBOOK propose une nouvelle traduction de Laure Valentin pour les tomes 1 et 2 (2017 et 2018). Puis Sandrine Larbre poursuit le travail de traduction : Anne quitte son ile en 2019, Anne au domaine des peupliers en 2020, et Anne dans sa maison de rêve en 2021. Les quatre premiers tomes sont également disponibles en livres audio, adaptés par la société bordelaise Voolume Editions.
-En 2020, une nouvelle traduction est publiée en français, sous le titre Anne de Green Gables[1].
+En 2020, une nouvelle traduction est publiée en français, sous le titre Anne de Green Gables.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Suite</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Après le succès de son premier roman, Lucy Maud Montgomery écrit une série de suites pour continuer l'histoire d'Anne Shirley.
 Le prologue, intitulé Before Green Gables, est publié par Budge Wilson en 2008 avec l'autorisation des héritiers de Lucy Maud Montgomery.
@@ -770,127 +897,321 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ferme de Green Gables est située à Cavendish, sur l'Île-du-Prince-Édouard, au Canada. De nombreuses attractions touristiques sur l'île sont développées autour de l'œuvre de Lucy Maud Montgomery[15], et certaines plaques d'immatriculation provinciales portent son image[16]. Balsam Hollow et Campbell Pond, une forêt et un lac ayant inspiré des lieux du roman, se trouvent également dans la propriété[17]. De plus, le Centre des arts de la Confédération, situé à Charlottetown, accueille la comédie musicale Anne... la maison aux pignons verts chaque été depuis cinq décennies[18]. Le musée de Anne... la maison aux pignons verts est situé à Park Corner, dans une maison qui a inspiré l'autrice[19].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ferme de Green Gables est située à Cavendish, sur l'Île-du-Prince-Édouard, au Canada. De nombreuses attractions touristiques sur l'île sont développées autour de l'œuvre de Lucy Maud Montgomery, et certaines plaques d'immatriculation provinciales portent son image. Balsam Hollow et Campbell Pond, une forêt et un lac ayant inspiré des lieux du roman, se trouvent également dans la propriété. De plus, le Centre des arts de la Confédération, situé à Charlottetown, accueille la comédie musicale Anne... la maison aux pignons verts chaque été depuis cinq décennies. Le musée de Anne... la maison aux pignons verts est situé à Park Corner, dans une maison qui a inspiré l'autrice.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Cinéma
-1919 : Anne of Green Gables, film muet sur un scénario de Frances Marion, réalisé par William Desmond Taylor, avec Mary Miles Minter. Le film est considéré perdu.
-1934 : Miss Carrott (Anne of Green Gables), film américain de George Nichols Jr., avec Dawn O'Day.
-Télévision
-Téléfilms
-1956 : Anne of Green Gables, téléfilm canadien de Don Harron, avec Toby Tarnow ;
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1919 : Anne of Green Gables, film muet sur un scénario de Frances Marion, réalisé par William Desmond Taylor, avec Mary Miles Minter. Le film est considéré perdu.
+1934 : Miss Carrott (Anne of Green Gables), film américain de George Nichols Jr., avec Dawn O'Day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Téléfilms</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1956 : Anne of Green Gables, téléfilm canadien de Don Harron, avec Toby Tarnow ;
 1957 : Anne De Green Gables, téléfilm québécois de Jacques Gauthier, avec Mireille Lachance, Hervé Brousseau ;
 1985 : Anne… la maison aux pignons verts (Anne of Green Gables) (Le Bonheur au bout du chemin en France) ;
 1987 : Anne... la maison aux pignons verts : La Suite (Anne of Green Gables: The Sequel) (Le Bonheur au bout du chemin II en France) ;
-2000 : Anne... la maison aux pignons verts : Les Années de tourmente (Anne of Green Gables: The Continuing Story) (Le Bonheur au bout du chemin III en France).
-Séries télévisées
-1952 : Anne of Green Gables, série télévisée britannique en six épisodes, avec Carole Lorimer ;
+2000 : Anne... la maison aux pignons verts : Les Années de tourmente (Anne of Green Gables: The Continuing Story) (Le Bonheur au bout du chemin III en France).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1952 : Anne of Green Gables, série télévisée britannique en six épisodes, avec Carole Lorimer ;
 1975 : Anne of Avonlea, série télévisée britannique en six épisodes de Joan Craft, avec Kim Braden ;
 1990-1996 : Les Contes d'Avonlea, série canadienne de Kevin Sullivan ;
-2017-2019 : Anne with an E, série canadienne de Moira Walley-Beckett.
-Dessins animés
-1979 : Anne… la maison aux pignons verts (japonais ; connu au Québec sous le titre Anne, la maison aux pignons verts)
-2000-2001 : Anne of Green Gables: The Animated Series (Canada ; doublé en français sous le titre Anne des pignons verts)
-Manga
-1997 : Anne - La maison aux pignons verts (赤毛のアン, Akage no Anne?), manga japonais dessiné par Igarashi Yumiko[20] ;
-2020 : Anne… la maison aux pignons verts (赤毛のアン, Akage no Anne?), manga japonais dessiné par Kuma-chan[21].
-Théâtre
-1965 : Anne of Green Gables: The Musical (en)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+2017-2019 : Anne with an E, série canadienne de Moira Walley-Beckett.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Dessins animés</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1979 : Anne… la maison aux pignons verts (japonais ; connu au Québec sous le titre Anne, la maison aux pignons verts)
+2000-2001 : Anne of Green Gables: The Animated Series (Canada ; doublé en français sous le titre Anne des pignons verts)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1997 : Anne - La maison aux pignons verts (赤毛のアン, Akage no Anne?), manga japonais dessiné par Igarashi Yumiko ;
+2020 : Anne… la maison aux pignons verts (赤毛のアン, Akage no Anne?), manga japonais dessiné par Kuma-chan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1965 : Anne of Green Gables: The Musical (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Anne…_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne%E2%80%A6_la_maison_aux_pignons_verts</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Bibliothèque nationale de France
-1925 : Anne, ou les Illusions heureuses, traduction de S. Maerky-Richard ; Genève : éd. J. H. Jeheber, 382 p[22].
-1964 : Anne et le bonheur, Lucy Maud Montgomery. Traduit par Suzanne Pairault. Illustré par Jacques Fromont ; Paris : éditions Hachette, collection Bibliothèque verte no 245, 254 p[23].
+1925 : Anne, ou les Illusions heureuses, traduction de S. Maerky-Richard ; Genève : éd. J. H. Jeheber, 382 p.
+1964 : Anne et le bonheur, Lucy Maud Montgomery. Traduit par Suzanne Pairault. Illustré par Jacques Fromont ; Paris : éditions Hachette, collection Bibliothèque verte no 245, 254 p.
 1986 : Anne… la maison aux pignons verts, Lucy Maud Montgomery ; édition Québec/Amérique,  (ISBN 2-7644-0136-1 et 2-89242-510-7)
-1987 : Anne : la maison aux pignons verts, Lucy Maud Montgomery ; trad. par Henri-Dominique Paratte, Paris : éditions Julliard, 277 p.,  (ISBN 2-260-00494-6)[24]
+1987 : Anne : la maison aux pignons verts, Lucy Maud Montgomery ; trad. par Henri-Dominique Paratte, Paris : éditions Julliard, 277 p.,  (ISBN 2-260-00494-6)
 2015 : Anne des pignons verts, Lucy Maud Montgomery ; trad. par Laure Valentin ; édition Il était un ebook, 332 p., (ASIN B0157CNKFM)
 2020 : Anne de Green Gables, Lucy Maud Montgomery ; traduit de l'anglais (Canada) par Hélène Charrier ; édition Monsieur Toussaint Louverture, 384 pages  (ISBN 978-2381960081).
 2021 : Anne d'Avonlea, Lucy Maud Montgomery ; traduit de l'anglais (Canada) par Isabelle Gadoin ; édition Monsieur Toussaint Louverture, 352 pages  (ISBN 9782381960135)
-2021 : Anne de Redmond, Lucy Maud Montgomery ; traduit de l'anglais (Canada) par Laure-Lyn Boisseau-Axmann ; édition Monsieur Toussaint Louverture, 344 pages  (ISBN 9782381960258)[25]
-2022 : Anne de Windy Willows, Lucy Maud Montgomery traduit de l'anglais (Canada) par Patricia Barbe-Girault ; édition Monsieur Toussaint Louverture, 366 pages  (ISBN 9782381960272)[26]
-2022 : Anne et la maison de ses rêves, Lucy Maud Montgomery traduit de l'anglais (Canada) par Laure-Lyn Boisseau-Axmann ; édition Monsieur Toussaint Louverture, 336 pages  (ISBN 9782381960326)[27]
-2022 : Anne d'Ingleside, Lucy Maud Montgomery traduit de l'anglais (Canada) par  Patricia Barbe-Girault ; édition Monsieur Toussaint Louverture, 336 pages  (ISBN 9782381960678)[28]</t>
+2021 : Anne de Redmond, Lucy Maud Montgomery ; traduit de l'anglais (Canada) par Laure-Lyn Boisseau-Axmann ; édition Monsieur Toussaint Louverture, 344 pages  (ISBN 9782381960258)
+2022 : Anne de Windy Willows, Lucy Maud Montgomery traduit de l'anglais (Canada) par Patricia Barbe-Girault ; édition Monsieur Toussaint Louverture, 366 pages  (ISBN 9782381960272)
+2022 : Anne et la maison de ses rêves, Lucy Maud Montgomery traduit de l'anglais (Canada) par Laure-Lyn Boisseau-Axmann ; édition Monsieur Toussaint Louverture, 336 pages  (ISBN 9782381960326)
+2022 : Anne d'Ingleside, Lucy Maud Montgomery traduit de l'anglais (Canada) par  Patricia Barbe-Girault ; édition Monsieur Toussaint Louverture, 336 pages  (ISBN 9782381960678)</t>
         </is>
       </c>
     </row>
